--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisze\Documents\r_work\ghtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E93368A-A64B-4C38-BBA9-DB30F0FFFF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC8ED4-F5C6-4899-9A7E-87DB6C4072E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="3960" windowWidth="30050" windowHeight="15720" activeTab="1" xr2:uid="{1518BA23-48EA-49F4-B9B8-4F632EF999C5}"/>
+    <workbookView xWindow="2380" yWindow="3540" windowWidth="30050" windowHeight="15720" xr2:uid="{1518BA23-48EA-49F4-B9B8-4F632EF999C5}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>location_id</t>
   </si>
@@ -121,6 +121,20 @@
   </si>
   <si>
     <t>https://x.com/_irumacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_11225_0024</t>
+  </si>
+  <si>
+    <t>入間市運動公園</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>埼玉県入間市豊岡４丁目２−１</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F1E53B-D600-476B-9AE7-FE4E7A0CF04A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -573,6 +587,29 @@
       </c>
       <c r="G2">
         <v>139.39596971470101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>35.834586634345101</v>
+      </c>
+      <c r="G3">
+        <v>139.39188302589301</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA50E4C8-5002-4E8A-871F-327DAFBEE144}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
